--- a/xlsx/烏拉圭_intext.xlsx
+++ b/xlsx/烏拉圭_intext.xlsx
@@ -29,7 +29,7 @@
     <t>乌拉圭国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_烏拉圭</t>
+    <t>体育运动_体育运动_路尔斯·艾拔图·苏亚雷斯_烏拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%BE%BD</t>
